--- a/CoordCalc.xlsx
+++ b/CoordCalc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>PX</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Any point</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>TopLeft</t>
@@ -404,7 +401,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,12 +426,12 @@
         <v>986</v>
       </c>
       <c r="J2">
-        <f>D6-D4</f>
-        <v>100</v>
+        <f>E5-E4</f>
+        <v>200</v>
       </c>
       <c r="K2">
         <f>I2/J2</f>
-        <v>9.86</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -458,17 +455,17 @@
         <v>492</v>
       </c>
       <c r="J3">
-        <f>E5-E4</f>
-        <v>200</v>
+        <f>D6-D4</f>
+        <v>100</v>
       </c>
       <c r="K3">
         <f>I3/J3</f>
-        <v>2.46</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>284</v>
@@ -485,7 +482,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1270</v>
@@ -514,7 +511,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>284</v>
@@ -532,17 +529,23 @@
         <v>9</v>
       </c>
       <c r="I6" s="1">
-        <v>1270</v>
+        <v>741</v>
       </c>
       <c r="J6" s="1">
-        <v>302</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="K6" s="2">
+        <f>D4+(J6-C4)/K3</f>
+        <v>-559.14634146341461</v>
+      </c>
+      <c r="L6" s="2">
+        <f>E4+(I6-B4)/K2</f>
+        <v>142.69776876267747</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1269</v>
@@ -555,12 +558,6 @@
       </c>
       <c r="E7">
         <v>250</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
